--- a/src/main/java/lomt/pearson/fileupload/externalframework/exf_ingestion_common_tcs/ExternalFramework_Stds_10Level.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/externalframework/exf_ingestion_common_tcs/ExternalFramework_Stds_10Level.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\externalframework\exf_ingestion_common_tcs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="325"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>Unique id</t>
   </si>
@@ -118,9 +123,6 @@
     <t>Ability to tap into the interdisciplinary nature of science</t>
   </si>
   <si>
-    <t>AAAS</t>
-  </si>
-  <si>
     <t>CCE A1</t>
   </si>
   <si>
@@ -331,21 +333,6 @@
     <t>CCE A-4</t>
   </si>
   <si>
-    <t>AAAS-1</t>
-  </si>
-  <si>
-    <t>AAAS-2</t>
-  </si>
-  <si>
-    <t>AAAS-3</t>
-  </si>
-  <si>
-    <t>AAAS-4</t>
-  </si>
-  <si>
-    <t>AAAS-5</t>
-  </si>
-  <si>
     <t>Level 5</t>
   </si>
   <si>
@@ -362,21 +349,6 @@
   </si>
   <si>
     <t>Lowest level 10</t>
-  </si>
-  <si>
-    <t>AAAS-6</t>
-  </si>
-  <si>
-    <t>AAAS-7</t>
-  </si>
-  <si>
-    <t>AAAS-8</t>
-  </si>
-  <si>
-    <t>AAAS-9</t>
-  </si>
-  <si>
-    <t>AAAS-10</t>
   </si>
   <si>
     <t>K</t>
@@ -406,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -758,21 +730,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
@@ -787,12 +759,12 @@
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="38.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -815,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>6</v>
@@ -842,200 +814,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1"/>
       <c r="J7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1"/>
       <c r="K8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1"/>
       <c r="L9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="M10" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1"/>
       <c r="N11" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1"/>
       <c r="O12" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="25.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -1044,18 +994,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25.5">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -1064,18 +1012,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="25.5">
+    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>12</v>
@@ -1084,18 +1030,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="25.5">
+    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>13</v>
@@ -1104,18 +1048,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="25.5">
+    <row r="17" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
@@ -1124,18 +1066,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="38.25">
+    <row r="18" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>15</v>
@@ -1144,18 +1084,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
@@ -1164,18 +1102,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
@@ -1184,18 +1120,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -1204,823 +1138,727 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="25.5">
+    <row r="22" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="3">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="25.5">
+    <row r="23" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="38.25">
+    <row r="24" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="25.5">
+    <row r="25" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="38.25">
+    <row r="26" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="25.5">
+    <row r="27" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="25.5">
+    <row r="28" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="38.25">
+    <row r="29" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3">
         <v>12</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="25.5">
+    <row r="30" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="25.5">
+    <row r="31" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="25.5">
+    <row r="33" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="25.5">
+    <row r="34" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>12</v>
       </c>
       <c r="C34" s="3">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="25.5">
+    <row r="35" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>12</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="25.5">
+    <row r="36" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>12</v>
       </c>
       <c r="C36" s="3">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="25.5">
+    <row r="37" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="3">
         <v>12</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="38.25">
+    <row r="38" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>12</v>
       </c>
       <c r="C38" s="3">
         <v>12</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="38.25">
+    <row r="39" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>12</v>
       </c>
       <c r="C39" s="3">
         <v>12</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="25.5">
+    <row r="40" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>12</v>
       </c>
       <c r="C40" s="3">
         <v>12</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>12</v>
       </c>
       <c r="C41" s="3">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="25.5">
+    <row r="42" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>12</v>
       </c>
       <c r="C42" s="3">
         <v>12</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="1" t="s">
+    </row>
+    <row r="43" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="25.5">
-      <c r="B43" s="1">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="25.5">
+    <row r="44" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>12</v>
       </c>
       <c r="C44" s="3">
         <v>12</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="25.5">
+    <row r="45" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>12</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="25.5">
+    <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>12</v>
       </c>
       <c r="C46" s="3">
         <v>12</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="38.25">
+    <row r="47" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>12</v>
       </c>
       <c r="C47" s="3">
         <v>12</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="25.5">
+    <row r="48" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>12</v>
       </c>
       <c r="C48" s="3">
         <v>12</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="25.5">
+    <row r="49" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="38.25">
+    <row r="50" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>12</v>
       </c>
       <c r="C50" s="3">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="25.5">
+    <row r="51" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>12</v>
       </c>
       <c r="C51" s="3">
         <v>12</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="25.5">
+    <row r="52" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>12</v>
       </c>
       <c r="C52" s="3">
         <v>12</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="25.5">
+    <row r="53" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>12</v>
       </c>
       <c r="C53" s="3">
         <v>12</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="25.5">
+    <row r="54" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>12</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="25.5">
+    <row r="55" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>12</v>
       </c>
       <c r="C55" s="3">
         <v>12</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="25.5">
+    <row r="56" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>12</v>
       </c>
       <c r="C56" s="3">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="38.25">
+    <row r="57" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>12</v>
       </c>
       <c r="C57" s="3">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="38.25">
+    <row r="58" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>12</v>
       </c>
       <c r="C58" s="3">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="38.25">
+    <row r="59" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>12</v>
       </c>
       <c r="C59" s="3">
         <v>12</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="25.5">
+    <row r="60" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>12</v>
       </c>
       <c r="C60" s="3">
         <v>12</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>12</v>
       </c>
       <c r="C61" s="3">
         <v>12</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>12</v>
       </c>
       <c r="C62" s="3">
         <v>12</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>12</v>
       </c>
       <c r="C63" s="3">
         <v>12</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="25.5">
+    <row r="64" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>12</v>
       </c>
       <c r="C64" s="3">
         <v>12</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.5">
+    <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>12</v>
       </c>
       <c r="C65" s="3">
         <v>12</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.5">
+    <row r="66" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>12</v>
       </c>
       <c r="C66" s="3">
         <v>12</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.5">
+    <row r="67" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>12</v>
       </c>
       <c r="C67" s="3">
         <v>12</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="25.5">
+    <row r="68" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>12</v>
       </c>
       <c r="C68" s="3">
         <v>12</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>12</v>
       </c>
       <c r="C69" s="3">
         <v>12</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="26.25">
+    <row r="70" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="1">
         <v>12</v>
@@ -2028,62 +1866,54 @@
       <c r="C70" s="3">
         <v>12</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.5">
+    <row r="71" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>12</v>
       </c>
       <c r="C71" s="3">
         <v>12</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.5">
+    <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>12</v>
       </c>
       <c r="C72" s="3">
         <v>12</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>12</v>
       </c>
       <c r="C73" s="3">
         <v>12</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>32</v>

--- a/src/main/java/lomt/pearson/fileupload/externalframework/exf_ingestion_common_tcs/ExternalFramework_Stds_10Level.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/externalframework/exf_ingestion_common_tcs/ExternalFramework_Stds_10Level.xlsx
@@ -372,7 +372,7 @@
     <t>CCE A-9</t>
   </si>
   <si>
-    <t>External_Frameworks_10Level-C003</t>
+    <t>External_Frameworks_10Level-Automation-23feb</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,9 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -759,7 +757,7 @@
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
